--- a/ig/ch-epr-fhir/StructureDefinition-ch-mhd-documentreference-comprehensive.xlsx
+++ b/ig/ch-epr-fhir/StructureDefinition-ch-mhd-documentreference-comprehensive.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.0-ballot</t>
+    <t>4.0.1-ballot</t>
   </si>
   <si>
     <t>Name</t>

--- a/ig/ch-epr-fhir/StructureDefinition-ch-mhd-documentreference-comprehensive.xlsx
+++ b/ig/ch-epr-fhir/StructureDefinition-ch-mhd-documentreference-comprehensive.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2594" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2594" uniqueCount="522">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.1-ballot</t>
+    <t>4.0.1-ballot-2</t>
   </si>
   <si>
     <t>Name</t>
@@ -51,7 +51,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2020-07-10</t>
+    <t>2024-11-19T17:31:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -277,6 +277,9 @@
 </t>
   </si>
   <si>
+    <t>CH Core DocumentReference</t>
+  </si>
+  <si>
     <t>A reference to a document of any kind for any purpose. Provides metadata about the document so that the document can be discovered and managed. The scope of a document is any seralized object with a mime-type, so includes formal patient centric documents (CDA), cliical notes, scanned paper, and non-patient specific documents like policy text.</t>
   </si>
   <si>
@@ -483,6 +486,9 @@
     <t>Deletion status of the document</t>
   </si>
   <si>
+    <t>Extension Deletion Status for DocumentReference</t>
+  </si>
+  <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
@@ -500,6 +506,9 @@
     <t>Original ProviderRole: This extra metadata attribute SHALL be set by the Document Source actor to the role value of the current user and SHALL NOT be updated by Update Initiator or Document Administrator actors.</t>
   </si>
   <si>
+    <t>Extension Author AuthorRole for SubmissionSet and DocumentEntry</t>
+  </si>
+  <si>
     <t>DocumentReference.modifierExtension</t>
   </si>
   <si>
@@ -526,7 +535,7 @@
     <t>DocumentReference.masterIdentifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Identifier {http://fhir.ch/ig/ch-epr-fhir/StructureDefinition/OidIdentifier}
+    <t xml:space="preserve">Identifier {https://profiles.ihe.net/ITI/MHD/StructureDefinition/IHE.MHD.UniqueIdIdentifier}
 </t>
   </si>
   <si>
@@ -536,7 +545,7 @@
     <t>An identifier - identifies some entity uniquely and unambiguously. Typically this is used for business identifiers.</t>
   </si>
   <si>
-    <t>See ITI TF-2: Z.9.1.1 Identifier and CDA root plus extension.</t>
+    <t>CDA Document Id extension and root.</t>
   </si>
   <si>
     <t>The structure and format of this Id shall be consistent with the specification corresponding to the formatCode attribute. (e.g. for a DICOM standard document a 64-character numeric UID, for an HL7 CDA format a serialization of the CDA Document Id extension and root in the form "oid^extension", where OID is a 64 digits max, and the Id is a 16 UTF-8 char max. If the OID is coded without the extension then the '^' character shall not be included.).</t>
@@ -786,7 +795,7 @@
     <t>DocumentReference.author</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference &lt;&lt;contained&gt;&gt;
+    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitioner|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitionerrole|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-organization|Device|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-patient|RelatedPerson) &lt;&lt;contained&gt;&gt;
 </t>
   </si>
   <si>
@@ -818,6 +827,10 @@
   </si>
   <si>
     <t>DocumentReference.authenticator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitioner|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitionerrole|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-organization) &lt;&lt;contained&gt;&gt;
+</t>
   </si>
   <si>
     <t>Who/what authenticated the document</t>
@@ -1967,7 +1980,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="82.7421875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2167,13 +2180,13 @@
         <v>85</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -2235,22 +2248,22 @@
         <v>82</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AK2" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AO2" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AP2" t="s" s="2">
         <v>82</v>
@@ -2264,10 +2277,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2278,7 +2291,7 @@
         <v>83</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>82</v>
@@ -2287,19 +2300,19 @@
         <v>82</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -2349,13 +2362,13 @@
         <v>82</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>82</v>
@@ -2390,10 +2403,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2404,7 +2417,7 @@
         <v>83</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>82</v>
@@ -2413,16 +2426,16 @@
         <v>82</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2473,19 +2486,19 @@
         <v>82</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>82</v>
@@ -2514,10 +2527,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2528,28 +2541,28 @@
         <v>83</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2599,19 +2612,19 @@
         <v>82</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>82</v>
@@ -2640,10 +2653,10 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2654,7 +2667,7 @@
         <v>83</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>82</v>
@@ -2666,16 +2679,16 @@
         <v>82</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2701,13 +2714,13 @@
         <v>82</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>82</v>
@@ -2725,19 +2738,19 @@
         <v>82</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>82</v>
@@ -2766,21 +2779,21 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>82</v>
@@ -2792,16 +2805,16 @@
         <v>82</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2851,19 +2864,19 @@
         <v>82</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>82</v>
@@ -2875,7 +2888,7 @@
         <v>82</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AO7" t="s" s="2">
         <v>82</v>
@@ -2892,14 +2905,14 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2918,16 +2931,16 @@
         <v>82</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2977,7 +2990,7 @@
         <v>82</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>83</v>
@@ -3001,7 +3014,7 @@
         <v>82</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AO8" t="s" s="2">
         <v>82</v>
@@ -3018,10 +3031,10 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -3029,13 +3042,13 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>84</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="I9" t="s" s="2">
         <v>82</v>
@@ -3044,13 +3057,13 @@
         <v>82</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -3089,17 +3102,17 @@
         <v>82</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>83</v>
@@ -3111,7 +3124,7 @@
         <v>82</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>82</v>
@@ -3140,13 +3153,13 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>82</v>
@@ -3156,10 +3169,10 @@
         <v>83</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>82</v>
@@ -3168,13 +3181,13 @@
         <v>82</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -3225,7 +3238,7 @@
         <v>82</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>83</v>
@@ -3234,10 +3247,10 @@
         <v>84</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>82</v>
@@ -3266,26 +3279,26 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>82</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>82</v>
@@ -3294,13 +3307,13 @@
         <v>82</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -3351,7 +3364,7 @@
         <v>82</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>83</v>
@@ -3360,10 +3373,10 @@
         <v>84</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>82</v>
@@ -3392,14 +3405,14 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -3412,25 +3425,25 @@
         <v>82</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J12" t="s" s="2">
         <v>82</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>82</v>
@@ -3479,7 +3492,7 @@
         <v>82</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>83</v>
@@ -3491,7 +3504,7 @@
         <v>82</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>82</v>
@@ -3503,7 +3516,7 @@
         <v>82</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AO12" t="s" s="2">
         <v>82</v>
@@ -3520,10 +3533,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3531,13 +3544,13 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>82</v>
@@ -3546,19 +3559,19 @@
         <v>82</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>82</v>
@@ -3607,19 +3620,19 @@
         <v>82</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>82</v>
@@ -3631,7 +3644,7 @@
         <v>82</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="AO13" t="s" s="2">
         <v>82</v>
@@ -3640,7 +3653,7 @@
         <v>82</v>
       </c>
       <c r="AQ13" t="s" s="2">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="AR13" t="s" s="2">
         <v>82</v>
@@ -3648,10 +3661,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3665,22 +3678,22 @@
         <v>84</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3731,7 +3744,7 @@
         <v>82</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>83</v>
@@ -3743,39 +3756,39 @@
         <v>82</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP14" t="s" s="2">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="AQ14" t="s" s="2">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="AR14" t="s" s="2">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3783,31 +3796,31 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3833,13 +3846,13 @@
         <v>82</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>82</v>
@@ -3857,51 +3870,51 @@
         <v>82</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP15" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="AQ15" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="AR15" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3921,19 +3934,19 @@
         <v>82</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3959,13 +3972,13 @@
         <v>82</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>82</v>
@@ -3983,19 +3996,19 @@
         <v>82</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>82</v>
@@ -4004,19 +4017,19 @@
         <v>82</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP16" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="AQ16" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="AR16" t="s" s="2">
         <v>82</v>
@@ -4024,10 +4037,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4035,31 +4048,31 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -4085,11 +4098,11 @@
         <v>82</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Y17" s="2"/>
       <c r="Z17" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>82</v>
@@ -4107,83 +4120,83 @@
         <v>82</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="AP17" t="s" s="2">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="AQ17" t="s" s="2">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="AR17" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -4209,11 +4222,11 @@
         <v>82</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Y18" s="2"/>
       <c r="Z18" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>82</v>
@@ -4231,7 +4244,7 @@
         <v>82</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>83</v>
@@ -4243,7 +4256,7 @@
         <v>82</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>82</v>
@@ -4252,30 +4265,30 @@
         <v>82</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="AP18" t="s" s="2">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="AQ18" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AR18" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4283,31 +4296,31 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -4357,83 +4370,83 @@
         <v>82</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="AP19" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="AQ19" t="s" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="AR19" t="s" s="2">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4483,37 +4496,37 @@
         <v>82</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP20" t="s" s="2">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="AQ20" t="s" s="2">
         <v>82</v>
@@ -4524,10 +4537,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4541,25 +4554,25 @@
         <v>84</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4609,7 +4622,7 @@
         <v>82</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>83</v>
@@ -4621,39 +4634,39 @@
         <v>82</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="AP21" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AQ21" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="AR21" t="s" s="2">
-        <v>256</v>
+        <v>259</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4664,7 +4677,7 @@
         <v>83</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>82</v>
@@ -4676,16 +4689,16 @@
         <v>82</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4735,51 +4748,51 @@
         <v>82</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="AP22" t="s" s="2">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="AQ22" t="s" s="2">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="AR22" t="s" s="2">
-        <v>266</v>
+        <v>270</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4802,16 +4815,16 @@
         <v>82</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4861,31 +4874,31 @@
         <v>82</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>82</v>
@@ -4902,10 +4915,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4919,25 +4932,25 @@
         <v>84</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4987,7 +5000,7 @@
         <v>82</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>83</v>
@@ -4999,7 +5012,7 @@
         <v>82</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>82</v>
@@ -5008,10 +5021,10 @@
         <v>82</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>82</v>
@@ -5023,15 +5036,15 @@
         <v>82</v>
       </c>
       <c r="AR24" t="s" s="2">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5042,7 +5055,7 @@
         <v>83</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>82</v>
@@ -5054,13 +5067,13 @@
         <v>82</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -5111,13 +5124,13 @@
         <v>82</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>82</v>
@@ -5135,7 +5148,7 @@
         <v>82</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>82</v>
@@ -5152,14 +5165,14 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -5178,16 +5191,16 @@
         <v>82</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -5237,7 +5250,7 @@
         <v>82</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>83</v>
@@ -5249,7 +5262,7 @@
         <v>82</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>82</v>
@@ -5261,7 +5274,7 @@
         <v>82</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>82</v>
@@ -5278,14 +5291,14 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -5298,25 +5311,25 @@
         <v>82</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>82</v>
@@ -5365,7 +5378,7 @@
         <v>82</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>83</v>
@@ -5377,7 +5390,7 @@
         <v>82</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>82</v>
@@ -5389,7 +5402,7 @@
         <v>82</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>82</v>
@@ -5406,10 +5419,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5417,10 +5430,10 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>82</v>
@@ -5429,19 +5442,19 @@
         <v>82</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5467,43 +5480,43 @@
         <v>82</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Y28" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF28" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="Z28" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="AA28" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF28" t="s" s="2">
-        <v>297</v>
-      </c>
       <c r="AG28" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>82</v>
@@ -5512,10 +5525,10 @@
         <v>82</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>82</v>
@@ -5527,15 +5540,15 @@
         <v>82</v>
       </c>
       <c r="AR28" t="s" s="2">
-        <v>305</v>
+        <v>309</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5543,10 +5556,10 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>82</v>
@@ -5555,16 +5568,16 @@
         <v>82</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5615,19 +5628,19 @@
         <v>82</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>82</v>
@@ -5636,10 +5649,10 @@
         <v>82</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>82</v>
@@ -5651,15 +5664,15 @@
         <v>82</v>
       </c>
       <c r="AR29" t="s" s="2">
-        <v>312</v>
+        <v>316</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5670,31 +5683,31 @@
         <v>83</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>82</v>
@@ -5743,19 +5756,19 @@
         <v>82</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>82</v>
@@ -5767,7 +5780,7 @@
         <v>82</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>82</v>
@@ -5776,18 +5789,18 @@
         <v>82</v>
       </c>
       <c r="AQ30" t="s" s="2">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="AR30" t="s" s="2">
-        <v>320</v>
+        <v>324</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5795,34 +5808,34 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>84</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>82</v>
@@ -5847,11 +5860,11 @@
         <v>82</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Y31" s="2"/>
       <c r="Z31" t="s" s="2">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>82</v>
@@ -5869,7 +5882,7 @@
         <v>82</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>83</v>
@@ -5881,7 +5894,7 @@
         <v>82</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>82</v>
@@ -5890,30 +5903,30 @@
         <v>82</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="AP31" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AQ31" t="s" s="2">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="AR31" t="s" s="2">
-        <v>331</v>
+        <v>335</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5921,10 +5934,10 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>82</v>
@@ -5933,16 +5946,16 @@
         <v>82</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5993,10 +6006,10 @@
         <v>82</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>84</v>
@@ -6005,7 +6018,7 @@
         <v>82</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>82</v>
@@ -6014,10 +6027,10 @@
         <v>82</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>82</v>
@@ -6034,10 +6047,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6048,7 +6061,7 @@
         <v>83</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>82</v>
@@ -6060,13 +6073,13 @@
         <v>82</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -6117,13 +6130,13 @@
         <v>82</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>82</v>
@@ -6141,7 +6154,7 @@
         <v>82</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>82</v>
@@ -6158,14 +6171,14 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -6184,16 +6197,16 @@
         <v>82</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -6243,7 +6256,7 @@
         <v>82</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>83</v>
@@ -6255,7 +6268,7 @@
         <v>82</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>82</v>
@@ -6267,7 +6280,7 @@
         <v>82</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>82</v>
@@ -6284,14 +6297,14 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -6304,25 +6317,25 @@
         <v>82</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>82</v>
@@ -6371,7 +6384,7 @@
         <v>82</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>83</v>
@@ -6383,7 +6396,7 @@
         <v>82</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>82</v>
@@ -6395,7 +6408,7 @@
         <v>82</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>82</v>
@@ -6412,10 +6425,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6423,28 +6436,28 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -6495,51 +6508,51 @@
         <v>82</v>
       </c>
       <c r="AF36" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM36" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="AN36" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="AG36" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>336</v>
-      </c>
       <c r="AO36" t="s" s="2">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="AP36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AQ36" t="s" s="2">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="AR36" t="s" s="2">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6550,7 +6563,7 @@
         <v>83</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>82</v>
@@ -6562,13 +6575,13 @@
         <v>82</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6619,13 +6632,13 @@
         <v>82</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>82</v>
@@ -6643,7 +6656,7 @@
         <v>82</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>82</v>
@@ -6660,14 +6673,14 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -6686,16 +6699,16 @@
         <v>82</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6733,19 +6746,19 @@
         <v>82</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="AD38" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>83</v>
@@ -6757,7 +6770,7 @@
         <v>82</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>82</v>
@@ -6769,7 +6782,7 @@
         <v>82</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>82</v>
@@ -6786,10 +6799,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6797,32 +6810,32 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>82</v>
@@ -6835,7 +6848,7 @@
         <v>82</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="U39" t="s" s="2">
         <v>82</v>
@@ -6847,11 +6860,11 @@
         <v>82</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Y39" s="2"/>
       <c r="Z39" t="s" s="2">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>82</v>
@@ -6869,19 +6882,19 @@
         <v>82</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>82</v>
@@ -6893,7 +6906,7 @@
         <v>82</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>82</v>
@@ -6902,7 +6915,7 @@
         <v>82</v>
       </c>
       <c r="AQ39" t="s" s="2">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="AR39" t="s" s="2">
         <v>82</v>
@@ -6910,10 +6923,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6921,32 +6934,32 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>82</v>
@@ -6959,7 +6972,7 @@
         <v>82</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="U40" t="s" s="2">
         <v>82</v>
@@ -6971,11 +6984,11 @@
         <v>82</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Y40" s="2"/>
       <c r="Z40" t="s" s="2">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>82</v>
@@ -6993,19 +7006,19 @@
         <v>82</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>82</v>
@@ -7017,7 +7030,7 @@
         <v>82</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>82</v>
@@ -7034,10 +7047,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7060,19 +7073,19 @@
         <v>82</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>82</v>
@@ -7121,19 +7134,19 @@
         <v>82</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>82</v>
@@ -7145,7 +7158,7 @@
         <v>82</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>82</v>
@@ -7154,7 +7167,7 @@
         <v>82</v>
       </c>
       <c r="AQ41" t="s" s="2">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="AR41" t="s" s="2">
         <v>82</v>
@@ -7162,10 +7175,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7173,34 +7186,34 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>82</v>
@@ -7213,7 +7226,7 @@
         <v>82</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="U42" t="s" s="2">
         <v>82</v>
@@ -7249,19 +7262,19 @@
         <v>82</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>82</v>
@@ -7273,7 +7286,7 @@
         <v>82</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>82</v>
@@ -7282,7 +7295,7 @@
         <v>82</v>
       </c>
       <c r="AQ42" t="s" s="2">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="AR42" t="s" s="2">
         <v>82</v>
@@ -7290,10 +7303,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7304,31 +7317,31 @@
         <v>83</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>82</v>
@@ -7377,19 +7390,19 @@
         <v>82</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>82</v>
@@ -7401,7 +7414,7 @@
         <v>82</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>82</v>
@@ -7418,10 +7431,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7432,31 +7445,31 @@
         <v>83</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>82</v>
@@ -7505,19 +7518,19 @@
         <v>82</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>82</v>
@@ -7529,7 +7542,7 @@
         <v>82</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>82</v>
@@ -7546,10 +7559,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7557,32 +7570,32 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>82</v>
@@ -7595,7 +7608,7 @@
         <v>82</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="U45" t="s" s="2">
         <v>82</v>
@@ -7631,19 +7644,19 @@
         <v>82</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>82</v>
@@ -7655,7 +7668,7 @@
         <v>82</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>82</v>
@@ -7672,10 +7685,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7683,32 +7696,32 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>82</v>
@@ -7757,19 +7770,19 @@
         <v>82</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>82</v>
@@ -7781,7 +7794,7 @@
         <v>82</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>82</v>
@@ -7798,10 +7811,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7809,31 +7822,31 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7859,13 +7872,13 @@
         <v>82</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>82</v>
@@ -7883,19 +7896,19 @@
         <v>82</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>82</v>
@@ -7904,13 +7917,13 @@
         <v>82</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="AP47" t="s" s="2">
         <v>82</v>
@@ -7919,15 +7932,15 @@
         <v>82</v>
       </c>
       <c r="AR47" t="s" s="2">
-        <v>424</v>
+        <v>428</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7935,10 +7948,10 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>82</v>
@@ -7947,19 +7960,19 @@
         <v>82</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -8009,19 +8022,19 @@
         <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>82</v>
@@ -8033,7 +8046,7 @@
         <v>82</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>82</v>
@@ -8050,10 +8063,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8064,7 +8077,7 @@
         <v>83</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>82</v>
@@ -8076,13 +8089,13 @@
         <v>82</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -8133,13 +8146,13 @@
         <v>82</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>82</v>
@@ -8157,7 +8170,7 @@
         <v>82</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>82</v>
@@ -8174,14 +8187,14 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -8200,16 +8213,16 @@
         <v>82</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -8259,7 +8272,7 @@
         <v>82</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>83</v>
@@ -8271,7 +8284,7 @@
         <v>82</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>82</v>
@@ -8283,7 +8296,7 @@
         <v>82</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>82</v>
@@ -8300,14 +8313,14 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -8320,25 +8333,25 @@
         <v>82</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>82</v>
@@ -8387,7 +8400,7 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>83</v>
@@ -8399,7 +8412,7 @@
         <v>82</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>82</v>
@@ -8411,7 +8424,7 @@
         <v>82</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>82</v>
@@ -8428,10 +8441,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8454,13 +8467,13 @@
         <v>82</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -8511,7 +8524,7 @@
         <v>82</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>83</v>
@@ -8523,25 +8536,25 @@
         <v>82</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP52" t="s" s="2">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="AQ52" t="s" s="2">
         <v>82</v>
@@ -8552,10 +8565,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8578,16 +8591,16 @@
         <v>82</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8613,31 +8626,31 @@
         <v>82</v>
       </c>
       <c r="X53" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF53" t="s" s="2">
         <v>445</v>
-      </c>
-      <c r="Y53" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="Z53" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="AA53" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB53" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC53" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD53" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE53" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF53" t="s" s="2">
-        <v>441</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>83</v>
@@ -8649,7 +8662,7 @@
         <v>82</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>82</v>
@@ -8658,10 +8671,10 @@
         <v>82</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>82</v>
@@ -8673,15 +8686,15 @@
         <v>82</v>
       </c>
       <c r="AR53" t="s" s="2">
-        <v>450</v>
+        <v>454</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8692,25 +8705,25 @@
         <v>83</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8761,19 +8774,19 @@
         <v>82</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>82</v>
@@ -8782,13 +8795,13 @@
         <v>82</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="AP54" t="s" s="2">
         <v>82</v>
@@ -8797,15 +8810,15 @@
         <v>82</v>
       </c>
       <c r="AR54" t="s" s="2">
-        <v>458</v>
+        <v>462</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8813,13 +8826,13 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>82</v>
@@ -8828,13 +8841,13 @@
         <v>82</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8861,43 +8874,43 @@
         <v>82</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="Z55" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF55" t="s" s="2">
         <v>463</v>
-      </c>
-      <c r="AA55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF55" t="s" s="2">
-        <v>459</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>82</v>
@@ -8906,13 +8919,13 @@
         <v>82</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="AP55" t="s" s="2">
         <v>82</v>
@@ -8921,15 +8934,15 @@
         <v>82</v>
       </c>
       <c r="AR55" t="s" s="2">
-        <v>467</v>
+        <v>471</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8937,13 +8950,13 @@
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>82</v>
@@ -8952,19 +8965,19 @@
         <v>82</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>82</v>
@@ -8989,13 +9002,13 @@
         <v>82</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>82</v>
@@ -9013,19 +9026,19 @@
         <v>82</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>82</v>
@@ -9034,13 +9047,13 @@
         <v>82</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="AP56" t="s" s="2">
         <v>82</v>
@@ -9049,15 +9062,15 @@
         <v>82</v>
       </c>
       <c r="AR56" t="s" s="2">
-        <v>475</v>
+        <v>479</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9065,13 +9078,13 @@
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>82</v>
@@ -9080,16 +9093,16 @@
         <v>82</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -9139,19 +9152,19 @@
         <v>82</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>82</v>
@@ -9160,13 +9173,13 @@
         <v>82</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="AP57" t="s" s="2">
         <v>82</v>
@@ -9175,15 +9188,15 @@
         <v>82</v>
       </c>
       <c r="AR57" t="s" s="2">
-        <v>481</v>
+        <v>485</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9197,7 +9210,7 @@
         <v>84</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>82</v>
@@ -9206,16 +9219,16 @@
         <v>82</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -9265,7 +9278,7 @@
         <v>82</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>83</v>
@@ -9277,7 +9290,7 @@
         <v>82</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>82</v>
@@ -9286,13 +9299,13 @@
         <v>82</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="AP58" t="s" s="2">
         <v>82</v>
@@ -9301,15 +9314,15 @@
         <v>82</v>
       </c>
       <c r="AR58" t="s" s="2">
-        <v>490</v>
+        <v>494</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9320,7 +9333,7 @@
         <v>83</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>82</v>
@@ -9332,13 +9345,13 @@
         <v>82</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -9389,13 +9402,13 @@
         <v>82</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>82</v>
@@ -9413,7 +9426,7 @@
         <v>82</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>82</v>
@@ -9430,14 +9443,14 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -9456,16 +9469,16 @@
         <v>82</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -9503,19 +9516,19 @@
         <v>82</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AC60" t="s" s="2">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="AD60" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>83</v>
@@ -9527,7 +9540,7 @@
         <v>82</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>82</v>
@@ -9539,7 +9552,7 @@
         <v>82</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>82</v>
@@ -9556,10 +9569,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9570,7 +9583,7 @@
         <v>83</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>82</v>
@@ -9579,19 +9592,19 @@
         <v>82</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -9641,19 +9654,19 @@
         <v>82</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>82</v>
@@ -9665,7 +9678,7 @@
         <v>82</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>82</v>
@@ -9682,10 +9695,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9696,7 +9709,7 @@
         <v>83</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>82</v>
@@ -9705,19 +9718,19 @@
         <v>82</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -9743,13 +9756,13 @@
         <v>82</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>82</v>
@@ -9767,19 +9780,19 @@
         <v>82</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>82</v>
@@ -9791,7 +9804,7 @@
         <v>82</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>82</v>
@@ -9808,10 +9821,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9822,28 +9835,28 @@
         <v>83</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I63" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9893,19 +9906,19 @@
         <v>82</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>82</v>
@@ -9917,7 +9930,7 @@
         <v>82</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>82</v>
@@ -9934,10 +9947,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9948,7 +9961,7 @@
         <v>83</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>82</v>
@@ -9957,19 +9970,19 @@
         <v>82</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -10019,19 +10032,19 @@
         <v>82</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>82</v>
@@ -10043,7 +10056,7 @@
         <v>82</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>82</v>

--- a/ig/ch-epr-fhir/StructureDefinition-ch-mhd-documentreference-comprehensive.xlsx
+++ b/ig/ch-epr-fhir/StructureDefinition-ch-mhd-documentreference-comprehensive.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2874" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2874" uniqueCount="541">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.0-ballot</t>
+    <t>5.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-22T13:39:01+00:00</t>
+    <t>2025-12-18T15:54:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -391,7 +391,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -489,9 +489,6 @@
     <t>Deletion status of the document</t>
   </si>
   <si>
-    <t>Optional Extension Element - found in all resources.</t>
-  </si>
-  <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
@@ -841,7 +838,7 @@
     <t>Aa resource (or, for logical models, the URI of the logical model).</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
+    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
   </si>
   <si>
     <t>Reference.type</t>
@@ -1626,7 +1623,7 @@
     <t>DocumentReference.context.related</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(Resource|4.0.1)
 </t>
   </si>
   <si>
@@ -3224,7 +3221,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="10" hidden="true">
+    <row r="10">
       <c r="A10" t="s" s="2">
         <v>148</v>
       </c>
@@ -3260,7 +3257,7 @@
         <v>151</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -3320,7 +3317,7 @@
         <v>85</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>147</v>
@@ -3335,7 +3332,7 @@
         <v>83</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>139</v>
+        <v>83</v>
       </c>
       <c r="AO10" t="s" s="2">
         <v>83</v>
@@ -3350,15 +3347,15 @@
         <v>83</v>
       </c>
     </row>
-    <row r="11" hidden="true">
+    <row r="11">
       <c r="A11" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>140</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>83</v>
@@ -3380,13 +3377,13 @@
         <v>83</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="L11" t="s" s="2">
-        <v>157</v>
-      </c>
       <c r="M11" t="s" s="2">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -3446,7 +3443,7 @@
         <v>85</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>147</v>
@@ -3461,7 +3458,7 @@
         <v>83</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>139</v>
+        <v>83</v>
       </c>
       <c r="AO11" t="s" s="2">
         <v>83</v>
@@ -3478,14 +3475,14 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -3507,16 +3504,16 @@
         <v>141</v>
       </c>
       <c r="L12" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="M12" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="N12" t="s" s="2">
+      <c r="O12" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>83</v>
@@ -3565,7 +3562,7 @@
         <v>83</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>84</v>
@@ -3604,12 +3601,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="13" hidden="true">
+    <row r="13">
       <c r="A13" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3632,19 +3629,19 @@
         <v>97</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="N13" t="s" s="2">
+      <c r="O13" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="O13" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>83</v>
@@ -3693,7 +3690,7 @@
         <v>83</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>84</v>
@@ -3711,33 +3708,33 @@
         <v>83</v>
       </c>
       <c r="AL13" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AM13" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="AM13" t="s" s="2">
+      <c r="AN13" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="AN13" t="s" s="2">
+      <c r="AO13" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="AO13" t="s" s="2">
+      <c r="AP13" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="AP13" t="s" s="2">
+      <c r="AQ13" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="AQ13" t="s" s="2">
+      <c r="AR13" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="AR13" t="s" s="2">
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="2">
         <v>177</v>
       </c>
-    </row>
-    <row r="14" hidden="true">
-      <c r="A14" t="s" s="2">
-        <v>178</v>
-      </c>
       <c r="B14" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3760,13 +3757,13 @@
         <v>97</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>181</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3817,7 +3814,7 @@
         <v>83</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>84</v>
@@ -3835,33 +3832,33 @@
         <v>83</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AN14" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AO14" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP14" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AQ14" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="AO14" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP14" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="AQ14" t="s" s="2">
+      <c r="AR14" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="AR14" t="s" s="2">
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
         <v>184</v>
       </c>
-    </row>
-    <row r="15" hidden="true">
-      <c r="A15" t="s" s="2">
-        <v>185</v>
-      </c>
       <c r="B15" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3887,13 +3884,13 @@
         <v>116</v>
       </c>
       <c r="L15" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="M15" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3919,14 +3916,14 @@
         <v>83</v>
       </c>
       <c r="X15" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="Y15" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="Y15" t="s" s="2">
+      <c r="Z15" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="Z15" t="s" s="2">
-        <v>191</v>
-      </c>
       <c r="AA15" t="s" s="2">
         <v>83</v>
       </c>
@@ -3943,7 +3940,7 @@
         <v>83</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>96</v>
@@ -3958,36 +3955,36 @@
         <v>108</v>
       </c>
       <c r="AK15" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AL15" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="AL15" t="s" s="2">
+      <c r="AM15" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN15" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="AM15" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AN15" t="s" s="2">
+      <c r="AO15" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP15" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="AO15" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP15" t="s" s="2">
+      <c r="AQ15" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="AQ15" t="s" s="2">
+      <c r="AR15" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="AR15" t="s" s="2">
-        <v>197</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -4013,13 +4010,13 @@
         <v>116</v>
       </c>
       <c r="L16" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="M16" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -4045,14 +4042,14 @@
         <v>83</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="Y16" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="Z16" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="Z16" t="s" s="2">
-        <v>203</v>
-      </c>
       <c r="AA16" t="s" s="2">
         <v>83</v>
       </c>
@@ -4069,7 +4066,7 @@
         <v>83</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>84</v>
@@ -4090,30 +4087,30 @@
         <v>83</v>
       </c>
       <c r="AM16" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AN16" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="AN16" t="s" s="2">
+      <c r="AO16" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP16" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="AQ16" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="AO16" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP16" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="AQ16" t="s" s="2">
+      <c r="AR16" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="AR16" t="s" s="2">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="17" hidden="true">
-      <c r="A17" t="s" s="2">
-        <v>207</v>
-      </c>
       <c r="B17" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4136,16 +4133,16 @@
         <v>97</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -4171,11 +4168,11 @@
         <v>83</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="Y17" s="2"/>
       <c r="Z17" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>83</v>
@@ -4193,7 +4190,7 @@
         <v>83</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>84</v>
@@ -4211,37 +4208,37 @@
         <v>83</v>
       </c>
       <c r="AL17" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AM17" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="AM17" t="s" s="2">
+      <c r="AN17" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="AN17" t="s" s="2">
+      <c r="AO17" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="AO17" t="s" s="2">
+      <c r="AP17" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="AP17" t="s" s="2">
+      <c r="AQ17" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="AQ17" t="s" s="2">
+      <c r="AR17" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="AR17" t="s" s="2">
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="2">
         <v>219</v>
       </c>
-    </row>
-    <row r="18" hidden="true">
-      <c r="A18" t="s" s="2">
-        <v>220</v>
-      </c>
       <c r="B18" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -4260,16 +4257,16 @@
         <v>97</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L18" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -4295,11 +4292,11 @@
         <v>83</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="Y18" s="2"/>
       <c r="Z18" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>83</v>
@@ -4317,7 +4314,7 @@
         <v>83</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>84</v>
@@ -4338,30 +4335,30 @@
         <v>83</v>
       </c>
       <c r="AM18" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="AN18" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="AN18" t="s" s="2">
+      <c r="AO18" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="AO18" t="s" s="2">
+      <c r="AP18" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AQ18" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AR18" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="AP18" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="AQ18" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AR18" t="s" s="2">
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="2">
         <v>229</v>
       </c>
-    </row>
-    <row r="19" hidden="true">
-      <c r="A19" t="s" s="2">
-        <v>230</v>
-      </c>
       <c r="B19" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4384,16 +4381,16 @@
         <v>97</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -4443,7 +4440,7 @@
         <v>83</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>84</v>
@@ -4461,33 +4458,33 @@
         <v>83</v>
       </c>
       <c r="AL19" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="AM19" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="AM19" t="s" s="2">
+      <c r="AN19" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="AN19" t="s" s="2">
+      <c r="AO19" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="AO19" t="s" s="2">
+      <c r="AP19" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="AP19" t="s" s="2">
+      <c r="AQ19" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="AQ19" t="s" s="2">
+      <c r="AR19" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="AR19" t="s" s="2">
-        <v>241</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4510,13 +4507,13 @@
         <v>83</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4567,31 +4564,31 @@
         <v>83</v>
       </c>
       <c r="AF20" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AK20" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL20" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM20" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN20" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="AG20" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AK20" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL20" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AN20" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>83</v>
@@ -4608,14 +4605,14 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -4637,13 +4634,13 @@
         <v>141</v>
       </c>
       <c r="L21" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="M21" t="s" s="2">
-        <v>250</v>
-      </c>
       <c r="N21" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4684,7 +4681,7 @@
         <v>144</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AD21" t="s" s="2">
         <v>83</v>
@@ -4693,7 +4690,7 @@
         <v>145</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>84</v>
@@ -4717,7 +4714,7 @@
         <v>83</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>83</v>
@@ -4734,10 +4731,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4760,16 +4757,16 @@
         <v>97</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L22" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4819,16 +4816,16 @@
         <v>83</v>
       </c>
       <c r="AF22" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AI22" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="AG22" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>258</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>108</v>
@@ -4860,10 +4857,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4889,13 +4886,13 @@
         <v>110</v>
       </c>
       <c r="L23" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4921,31 +4918,31 @@
         <v>83</v>
       </c>
       <c r="X23" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="Y23" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="Y23" t="s" s="2">
+      <c r="Z23" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="Z23" t="s" s="2">
+      <c r="AA23" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE23" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF23" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="AA23" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE23" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF23" t="s" s="2">
-        <v>266</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>84</v>
@@ -4986,10 +4983,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -5012,16 +5009,16 @@
         <v>97</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -5071,7 +5068,7 @@
         <v>83</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>84</v>
@@ -5095,7 +5092,7 @@
         <v>83</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>83</v>
@@ -5112,10 +5109,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5138,16 +5135,16 @@
         <v>97</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -5197,7 +5194,7 @@
         <v>83</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>84</v>
@@ -5238,14 +5235,14 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -5264,16 +5261,16 @@
         <v>97</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>284</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -5323,7 +5320,7 @@
         <v>83</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>84</v>
@@ -5341,33 +5338,33 @@
         <v>83</v>
       </c>
       <c r="AL26" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AM26" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="AM26" t="s" s="2">
+      <c r="AN26" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="AN26" t="s" s="2">
+      <c r="AO26" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP26" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="AO26" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP26" t="s" s="2">
+      <c r="AQ26" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AR26" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="AQ26" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AR26" t="s" s="2">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="27" hidden="true">
-      <c r="A27" t="s" s="2">
-        <v>289</v>
-      </c>
       <c r="B27" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5390,16 +5387,16 @@
         <v>97</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>292</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>293</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -5449,7 +5446,7 @@
         <v>83</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>84</v>
@@ -5467,33 +5464,33 @@
         <v>83</v>
       </c>
       <c r="AL27" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AM27" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="AM27" t="s" s="2">
+      <c r="AN27" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="AN27" t="s" s="2">
+      <c r="AO27" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="AO27" t="s" s="2">
+      <c r="AP27" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AQ27" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="AP27" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AQ27" t="s" s="2">
+      <c r="AR27" t="s" s="2">
         <v>298</v>
-      </c>
-      <c r="AR27" t="s" s="2">
-        <v>299</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5516,16 +5513,16 @@
         <v>83</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5575,7 +5572,7 @@
         <v>83</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>84</v>
@@ -5593,33 +5590,33 @@
         <v>83</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AM28" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="AN28" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="AN28" t="s" s="2">
+      <c r="AO28" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="AO28" t="s" s="2">
+      <c r="AP28" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="AP28" t="s" s="2">
+      <c r="AQ28" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="AQ28" t="s" s="2">
+      <c r="AR28" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="AR28" t="s" s="2">
-        <v>310</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5642,16 +5639,16 @@
         <v>83</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>315</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5701,7 +5698,7 @@
         <v>83</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>84</v>
@@ -5719,33 +5716,33 @@
         <v>83</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AM29" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AN29" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="AN29" t="s" s="2">
+      <c r="AO29" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP29" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AQ29" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AR29" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="AO29" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP29" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AQ29" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AR29" t="s" s="2">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="30" hidden="true">
-      <c r="A30" t="s" s="2">
-        <v>318</v>
-      </c>
       <c r="B30" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5768,16 +5765,16 @@
         <v>97</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>322</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5827,7 +5824,7 @@
         <v>83</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>84</v>
@@ -5848,30 +5845,30 @@
         <v>83</v>
       </c>
       <c r="AM30" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="AN30" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="AN30" t="s" s="2">
+      <c r="AO30" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP30" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AQ30" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AR30" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="AO30" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP30" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AQ30" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AR30" t="s" s="2">
-        <v>325</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5894,13 +5891,13 @@
         <v>83</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5951,31 +5948,31 @@
         <v>83</v>
       </c>
       <c r="AF31" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL31" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM31" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN31" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="AG31" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>83</v>
@@ -5992,14 +5989,14 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -6021,13 +6018,13 @@
         <v>141</v>
       </c>
       <c r="L32" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="M32" t="s" s="2">
-        <v>250</v>
-      </c>
       <c r="N32" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -6077,7 +6074,7 @@
         <v>83</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>84</v>
@@ -6101,7 +6098,7 @@
         <v>83</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>83</v>
@@ -6118,14 +6115,14 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -6147,16 +6144,16 @@
         <v>141</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="M33" t="s" s="2">
-        <v>331</v>
-      </c>
       <c r="N33" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="O33" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>83</v>
@@ -6205,7 +6202,7 @@
         <v>83</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>84</v>
@@ -6246,10 +6243,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6275,13 +6272,13 @@
         <v>116</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>336</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -6307,14 +6304,14 @@
         <v>83</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="Y34" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="Z34" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="Z34" t="s" s="2">
-        <v>338</v>
-      </c>
       <c r="AA34" t="s" s="2">
         <v>83</v>
       </c>
@@ -6331,7 +6328,7 @@
         <v>83</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>96</v>
@@ -6352,30 +6349,30 @@
         <v>83</v>
       </c>
       <c r="AM34" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="AN34" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="AN34" t="s" s="2">
+      <c r="AO34" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP34" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AQ34" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AR34" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="AO34" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP34" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AQ34" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AR34" t="s" s="2">
-        <v>341</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6398,13 +6395,13 @@
         <v>97</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>344</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>345</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -6455,7 +6452,7 @@
         <v>83</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>96</v>
@@ -6476,30 +6473,30 @@
         <v>83</v>
       </c>
       <c r="AM35" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="AN35" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="AN35" t="s" s="2">
+      <c r="AO35" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP35" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AQ35" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AR35" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="AO35" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP35" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AQ35" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AR35" t="s" s="2">
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="2">
         <v>348</v>
       </c>
-    </row>
-    <row r="36" hidden="true">
-      <c r="A36" t="s" s="2">
-        <v>349</v>
-      </c>
       <c r="B36" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6522,19 +6519,19 @@
         <v>97</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="N36" t="s" s="2">
+      <c r="O36" t="s" s="2">
         <v>352</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>353</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>83</v>
@@ -6583,7 +6580,7 @@
         <v>83</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>84</v>
@@ -6607,27 +6604,27 @@
         <v>83</v>
       </c>
       <c r="AN36" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="AO36" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP36" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AQ36" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="AO36" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP36" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AQ36" t="s" s="2">
+      <c r="AR36" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="AR36" t="s" s="2">
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="2">
         <v>356</v>
       </c>
-    </row>
-    <row r="37" hidden="true">
-      <c r="A37" t="s" s="2">
-        <v>357</v>
-      </c>
       <c r="B37" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6650,19 +6647,19 @@
         <v>97</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="N37" t="s" s="2">
+      <c r="O37" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>83</v>
@@ -6687,11 +6684,11 @@
         <v>83</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="Y37" s="2"/>
       <c r="Z37" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>83</v>
@@ -6709,7 +6706,7 @@
         <v>83</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>84</v>
@@ -6730,30 +6727,30 @@
         <v>83</v>
       </c>
       <c r="AM37" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="AN37" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="AN37" t="s" s="2">
+      <c r="AO37" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="AO37" t="s" s="2">
+      <c r="AP37" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AQ37" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="AP37" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AQ37" t="s" s="2">
+      <c r="AR37" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="AR37" t="s" s="2">
-        <v>367</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6776,13 +6773,13 @@
         <v>97</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>370</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6833,7 +6830,7 @@
         <v>83</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>96</v>
@@ -6854,10 +6851,10 @@
         <v>83</v>
       </c>
       <c r="AM38" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="AN38" t="s" s="2">
         <v>371</v>
-      </c>
-      <c r="AN38" t="s" s="2">
-        <v>372</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>83</v>
@@ -6874,10 +6871,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6900,13 +6897,13 @@
         <v>83</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6957,31 +6954,31 @@
         <v>83</v>
       </c>
       <c r="AF39" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM39" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN39" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="AG39" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AK39" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL39" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>83</v>
@@ -6998,14 +6995,14 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -7027,13 +7024,13 @@
         <v>141</v>
       </c>
       <c r="L40" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="M40" t="s" s="2">
-        <v>250</v>
-      </c>
       <c r="N40" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -7083,7 +7080,7 @@
         <v>83</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>84</v>
@@ -7107,7 +7104,7 @@
         <v>83</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>83</v>
@@ -7124,14 +7121,14 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -7153,16 +7150,16 @@
         <v>141</v>
       </c>
       <c r="L41" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="M41" t="s" s="2">
-        <v>331</v>
-      </c>
       <c r="N41" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="O41" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>83</v>
@@ -7211,7 +7208,7 @@
         <v>83</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>84</v>
@@ -7250,12 +7247,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="42" hidden="true">
+    <row r="42">
       <c r="A42" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7278,13 +7275,13 @@
         <v>97</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>378</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>379</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -7335,7 +7332,7 @@
         <v>83</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>96</v>
@@ -7356,30 +7353,30 @@
         <v>83</v>
       </c>
       <c r="AM42" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="AN42" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AO42" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="AN42" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="AO42" t="s" s="2">
+      <c r="AP42" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AQ42" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="AP42" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AQ42" t="s" s="2">
+      <c r="AR42" t="s" s="2">
         <v>382</v>
-      </c>
-      <c r="AR42" t="s" s="2">
-        <v>383</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7402,13 +7399,13 @@
         <v>83</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -7459,31 +7456,31 @@
         <v>83</v>
       </c>
       <c r="AF43" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL43" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM43" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN43" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="AG43" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH43" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AI43" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ43" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AK43" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL43" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM43" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AN43" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>83</v>
@@ -7500,14 +7497,14 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -7529,13 +7526,13 @@
         <v>141</v>
       </c>
       <c r="L44" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="M44" t="s" s="2">
-        <v>250</v>
-      </c>
       <c r="N44" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7576,7 +7573,7 @@
         <v>144</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AD44" t="s" s="2">
         <v>83</v>
@@ -7585,7 +7582,7 @@
         <v>145</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>84</v>
@@ -7609,7 +7606,7 @@
         <v>83</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>83</v>
@@ -7624,12 +7621,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="45" hidden="true">
+    <row r="45">
       <c r="A45" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7655,14 +7652,14 @@
         <v>116</v>
       </c>
       <c r="L45" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>387</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>388</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>83</v>
@@ -7675,7 +7672,7 @@
         <v>83</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="U45" t="s" s="2">
         <v>83</v>
@@ -7687,73 +7684,73 @@
         <v>83</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="Y45" s="2"/>
       <c r="Z45" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF45" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="AA45" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB45" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC45" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD45" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE45" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF45" t="s" s="2">
+      <c r="AG45" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="AG45" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH45" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AI45" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ45" t="s" s="2">
+      <c r="AK45" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM45" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN45" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="AK45" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AN45" t="s" s="2">
+      <c r="AO45" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP45" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AQ45" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="AO45" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP45" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AQ45" t="s" s="2">
+      <c r="AR45" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="AR45" t="s" s="2">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="46" hidden="true">
-      <c r="A46" t="s" s="2">
-        <v>396</v>
-      </c>
       <c r="B46" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7779,14 +7776,14 @@
         <v>116</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>397</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>398</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>83</v>
@@ -7799,7 +7796,7 @@
         <v>83</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="U46" t="s" s="2">
         <v>83</v>
@@ -7811,29 +7808,29 @@
         <v>83</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="Y46" s="2"/>
       <c r="Z46" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF46" t="s" s="2">
         <v>401</v>
-      </c>
-      <c r="AA46" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB46" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC46" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD46" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE46" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF46" t="s" s="2">
-        <v>402</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>84</v>
@@ -7857,7 +7854,7 @@
         <v>83</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>83</v>
@@ -7874,10 +7871,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7900,19 +7897,19 @@
         <v>83</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="M47" t="s" s="2">
+      <c r="N47" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="O47" t="s" s="2">
         <v>407</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>408</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>83</v>
@@ -7961,7 +7958,7 @@
         <v>83</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>84</v>
@@ -7985,27 +7982,27 @@
         <v>83</v>
       </c>
       <c r="AN47" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="AO47" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP47" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AQ47" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="AO47" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP47" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AQ47" t="s" s="2">
+      <c r="AR47" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="AR47" t="s" s="2">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="48" hidden="true">
-      <c r="A48" t="s" s="2">
-        <v>412</v>
-      </c>
       <c r="B48" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8028,19 +8025,19 @@
         <v>97</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="M48" t="s" s="2">
+      <c r="N48" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="N48" t="s" s="2">
+      <c r="O48" t="s" s="2">
         <v>416</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>417</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>83</v>
@@ -8053,43 +8050,43 @@
         <v>83</v>
       </c>
       <c r="T48" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF48" t="s" s="2">
         <v>418</v>
-      </c>
-      <c r="U48" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="V48" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="W48" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="X48" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Y48" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Z48" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AA48" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB48" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC48" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD48" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE48" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF48" t="s" s="2">
-        <v>419</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>84</v>
@@ -8113,27 +8110,27 @@
         <v>83</v>
       </c>
       <c r="AN48" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="AO48" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP48" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AQ48" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="AO48" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP48" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AQ48" t="s" s="2">
+      <c r="AR48" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="AR48" t="s" s="2">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="49" hidden="true">
-      <c r="A49" t="s" s="2">
-        <v>422</v>
-      </c>
       <c r="B49" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8156,19 +8153,19 @@
         <v>97</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>423</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>424</v>
       </c>
-      <c r="M49" t="s" s="2">
+      <c r="N49" t="s" s="2">
         <v>425</v>
       </c>
-      <c r="N49" t="s" s="2">
+      <c r="O49" t="s" s="2">
         <v>426</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>427</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>83</v>
@@ -8217,7 +8214,7 @@
         <v>83</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>84</v>
@@ -8241,27 +8238,27 @@
         <v>83</v>
       </c>
       <c r="AN49" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="AO49" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP49" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AQ49" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AR49" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="2">
         <v>429</v>
       </c>
-      <c r="AO49" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP49" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AQ49" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AR49" t="s" s="2">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="50" hidden="true">
-      <c r="A50" t="s" s="2">
-        <v>430</v>
-      </c>
       <c r="B50" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8284,19 +8281,19 @@
         <v>97</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="N50" t="s" s="2">
+      <c r="O50" t="s" s="2">
         <v>433</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>434</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>83</v>
@@ -8345,7 +8342,7 @@
         <v>83</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>84</v>
@@ -8369,27 +8366,27 @@
         <v>83</v>
       </c>
       <c r="AN50" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="AO50" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP50" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AQ50" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AR50" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="AO50" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP50" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AQ50" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AR50" t="s" s="2">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="51" hidden="true">
-      <c r="A51" t="s" s="2">
-        <v>437</v>
-      </c>
       <c r="B51" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8412,17 +8409,17 @@
         <v>97</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>438</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>439</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>83</v>
@@ -8435,43 +8432,43 @@
         <v>83</v>
       </c>
       <c r="T51" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF51" t="s" s="2">
         <v>441</v>
-      </c>
-      <c r="U51" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="V51" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="W51" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="X51" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Y51" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Z51" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AA51" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB51" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC51" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD51" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE51" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF51" t="s" s="2">
-        <v>442</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>84</v>
@@ -8495,27 +8492,27 @@
         <v>83</v>
       </c>
       <c r="AN51" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="AO51" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP51" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AQ51" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AR51" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="2">
         <v>443</v>
       </c>
-      <c r="AO51" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP51" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AQ51" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AR51" t="s" s="2">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="52" hidden="true">
-      <c r="A52" t="s" s="2">
-        <v>444</v>
-      </c>
       <c r="B52" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8538,17 +8535,17 @@
         <v>97</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>445</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>446</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>447</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>83</v>
@@ -8597,7 +8594,7 @@
         <v>83</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>84</v>
@@ -8621,7 +8618,7 @@
         <v>83</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>83</v>
@@ -8636,12 +8633,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="53" hidden="true">
+    <row r="53">
       <c r="A53" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8664,16 +8661,16 @@
         <v>97</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>451</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>452</v>
       </c>
-      <c r="M53" t="s" s="2">
+      <c r="N53" t="s" s="2">
         <v>453</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>454</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8699,14 +8696,14 @@
         <v>83</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="Y53" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="Z53" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="Z53" t="s" s="2">
-        <v>456</v>
-      </c>
       <c r="AA53" t="s" s="2">
         <v>83</v>
       </c>
@@ -8723,7 +8720,7 @@
         <v>83</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>84</v>
@@ -8744,30 +8741,30 @@
         <v>83</v>
       </c>
       <c r="AM53" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="AN53" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AO53" t="s" s="2">
         <v>457</v>
       </c>
-      <c r="AN53" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="AO53" t="s" s="2">
+      <c r="AP53" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AQ53" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AR53" t="s" s="2">
         <v>458</v>
-      </c>
-      <c r="AP53" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AQ53" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AR53" t="s" s="2">
-        <v>459</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8790,16 +8787,16 @@
         <v>97</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L54" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="M54" t="s" s="2">
         <v>461</v>
       </c>
-      <c r="M54" t="s" s="2">
+      <c r="N54" t="s" s="2">
         <v>462</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>463</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8849,7 +8846,7 @@
         <v>83</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>84</v>
@@ -8873,7 +8870,7 @@
         <v>83</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>83</v>
@@ -8890,10 +8887,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8916,13 +8913,13 @@
         <v>83</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8973,31 +8970,31 @@
         <v>83</v>
       </c>
       <c r="AF55" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN55" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="AG55" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH55" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AI55" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ55" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AK55" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AN55" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>83</v>
@@ -9014,14 +9011,14 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -9043,13 +9040,13 @@
         <v>141</v>
       </c>
       <c r="L56" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="M56" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="M56" t="s" s="2">
-        <v>250</v>
-      </c>
       <c r="N56" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -9099,7 +9096,7 @@
         <v>83</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>84</v>
@@ -9123,7 +9120,7 @@
         <v>83</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>83</v>
@@ -9140,14 +9137,14 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -9169,16 +9166,16 @@
         <v>141</v>
       </c>
       <c r="L57" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="M57" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="M57" t="s" s="2">
-        <v>331</v>
-      </c>
       <c r="N57" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="O57" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>83</v>
@@ -9227,7 +9224,7 @@
         <v>83</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>84</v>
@@ -9268,10 +9265,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9294,13 +9291,13 @@
         <v>83</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>469</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="M58" t="s" s="2">
         <v>470</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>471</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -9351,7 +9348,7 @@
         <v>83</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>84</v>
@@ -9369,33 +9366,33 @@
         <v>83</v>
       </c>
       <c r="AL58" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="AM58" t="s" s="2">
         <v>472</v>
       </c>
-      <c r="AM58" t="s" s="2">
+      <c r="AN58" t="s" s="2">
         <v>473</v>
       </c>
-      <c r="AN58" t="s" s="2">
+      <c r="AO58" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP58" t="s" s="2">
         <v>474</v>
       </c>
-      <c r="AO58" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP58" t="s" s="2">
+      <c r="AQ58" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AR58" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="2">
         <v>475</v>
       </c>
-      <c r="AQ58" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AR58" t="s" s="2">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="59" hidden="true">
-      <c r="A59" t="s" s="2">
-        <v>476</v>
-      </c>
       <c r="B59" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9418,16 +9415,16 @@
         <v>83</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L59" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>477</v>
       </c>
-      <c r="M59" t="s" s="2">
+      <c r="N59" t="s" s="2">
         <v>478</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>479</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -9453,11 +9450,11 @@
         <v>83</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="Y59" s="2"/>
       <c r="Z59" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>83</v>
@@ -9475,7 +9472,7 @@
         <v>83</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>84</v>
@@ -9496,30 +9493,30 @@
         <v>83</v>
       </c>
       <c r="AM59" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="AN59" t="s" s="2">
         <v>481</v>
       </c>
-      <c r="AN59" t="s" s="2">
+      <c r="AO59" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP59" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AQ59" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AR59" t="s" s="2">
         <v>482</v>
       </c>
-      <c r="AO59" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP59" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AQ59" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AR59" t="s" s="2">
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="2">
         <v>483</v>
       </c>
-    </row>
-    <row r="60" hidden="true">
-      <c r="A60" t="s" s="2">
-        <v>484</v>
-      </c>
       <c r="B60" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9542,13 +9539,13 @@
         <v>97</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>485</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="M60" t="s" s="2">
         <v>486</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>487</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -9599,7 +9596,7 @@
         <v>83</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>84</v>
@@ -9620,30 +9617,30 @@
         <v>83</v>
       </c>
       <c r="AM60" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="AN60" t="s" s="2">
         <v>488</v>
       </c>
-      <c r="AN60" t="s" s="2">
+      <c r="AO60" t="s" s="2">
         <v>489</v>
       </c>
-      <c r="AO60" t="s" s="2">
+      <c r="AP60" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AQ60" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AR60" t="s" s="2">
         <v>490</v>
       </c>
-      <c r="AP60" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AQ60" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AR60" t="s" s="2">
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="2">
         <v>491</v>
       </c>
-    </row>
-    <row r="61" hidden="true">
-      <c r="A61" t="s" s="2">
-        <v>492</v>
-      </c>
       <c r="B61" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9666,13 +9663,13 @@
         <v>83</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L61" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="M61" t="s" s="2">
         <v>493</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>494</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -9699,14 +9696,14 @@
         <v>83</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="Y61" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="Z61" t="s" s="2">
         <v>495</v>
       </c>
-      <c r="Z61" t="s" s="2">
-        <v>496</v>
-      </c>
       <c r="AA61" t="s" s="2">
         <v>83</v>
       </c>
@@ -9723,7 +9720,7 @@
         <v>83</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>84</v>
@@ -9744,30 +9741,30 @@
         <v>83</v>
       </c>
       <c r="AM61" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="AN61" t="s" s="2">
         <v>497</v>
       </c>
-      <c r="AN61" t="s" s="2">
+      <c r="AO61" t="s" s="2">
         <v>498</v>
       </c>
-      <c r="AO61" t="s" s="2">
+      <c r="AP61" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AQ61" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AR61" t="s" s="2">
         <v>499</v>
       </c>
-      <c r="AP61" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AQ61" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AR61" t="s" s="2">
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="2">
         <v>500</v>
       </c>
-    </row>
-    <row r="62" hidden="true">
-      <c r="A62" t="s" s="2">
-        <v>501</v>
-      </c>
       <c r="B62" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9790,19 +9787,19 @@
         <v>83</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L62" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="M62" t="s" s="2">
         <v>502</v>
       </c>
-      <c r="M62" t="s" s="2">
+      <c r="N62" t="s" s="2">
         <v>503</v>
       </c>
-      <c r="N62" t="s" s="2">
+      <c r="O62" t="s" s="2">
         <v>504</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>505</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>83</v>
@@ -9827,14 +9824,14 @@
         <v>83</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="Y62" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="Z62" t="s" s="2">
         <v>506</v>
       </c>
-      <c r="Z62" t="s" s="2">
-        <v>507</v>
-      </c>
       <c r="AA62" t="s" s="2">
         <v>83</v>
       </c>
@@ -9851,7 +9848,7 @@
         <v>83</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>84</v>
@@ -9872,13 +9869,13 @@
         <v>83</v>
       </c>
       <c r="AM62" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="AN62" t="s" s="2">
         <v>497</v>
       </c>
-      <c r="AN62" t="s" s="2">
-        <v>498</v>
-      </c>
       <c r="AO62" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="AP62" t="s" s="2">
         <v>83</v>
@@ -9887,15 +9884,15 @@
         <v>83</v>
       </c>
       <c r="AR62" t="s" s="2">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="2">
         <v>508</v>
       </c>
-    </row>
-    <row r="63" hidden="true">
-      <c r="A63" t="s" s="2">
-        <v>509</v>
-      </c>
       <c r="B63" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9918,16 +9915,16 @@
         <v>83</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>510</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="M63" t="s" s="2">
         <v>511</v>
       </c>
-      <c r="M63" t="s" s="2">
+      <c r="N63" t="s" s="2">
         <v>512</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>513</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9977,7 +9974,7 @@
         <v>83</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>84</v>
@@ -9998,14 +9995,14 @@
         <v>83</v>
       </c>
       <c r="AM63" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AN63" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="AN63" t="s" s="2">
+      <c r="AO63" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="AO63" t="s" s="2">
-        <v>238</v>
-      </c>
       <c r="AP63" t="s" s="2">
         <v>83</v>
       </c>
@@ -10013,15 +10010,15 @@
         <v>83</v>
       </c>
       <c r="AR63" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -10044,16 +10041,16 @@
         <v>83</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>516</v>
       </c>
-      <c r="L64" t="s" s="2">
+      <c r="M64" t="s" s="2">
         <v>517</v>
       </c>
-      <c r="M64" t="s" s="2">
+      <c r="N64" t="s" s="2">
         <v>518</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>519</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -10091,7 +10088,7 @@
         <v>83</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AC64" s="2"/>
       <c r="AD64" t="s" s="2">
@@ -10101,7 +10098,7 @@
         <v>145</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>84</v>
@@ -10122,33 +10119,33 @@
         <v>83</v>
       </c>
       <c r="AM64" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="AN64" t="s" s="2">
         <v>521</v>
       </c>
-      <c r="AN64" t="s" s="2">
+      <c r="AO64" t="s" s="2">
         <v>522</v>
       </c>
-      <c r="AO64" t="s" s="2">
+      <c r="AP64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AQ64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AR64" t="s" s="2">
         <v>523</v>
       </c>
-      <c r="AP64" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AQ64" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AR64" t="s" s="2">
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="2">
         <v>524</v>
       </c>
-    </row>
-    <row r="65" hidden="true">
-      <c r="A65" t="s" s="2">
+      <c r="B65" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="C65" t="s" s="2">
         <v>525</v>
-      </c>
-      <c r="B65" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="C65" t="s" s="2">
-        <v>526</v>
       </c>
       <c r="D65" t="s" s="2">
         <v>83</v>
@@ -10170,16 +10167,16 @@
         <v>83</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>516</v>
       </c>
-      <c r="L65" t="s" s="2">
+      <c r="M65" t="s" s="2">
         <v>517</v>
       </c>
-      <c r="M65" t="s" s="2">
-        <v>518</v>
-      </c>
       <c r="N65" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -10229,7 +10226,7 @@
         <v>83</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>84</v>
@@ -10250,30 +10247,30 @@
         <v>83</v>
       </c>
       <c r="AM65" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="AN65" t="s" s="2">
         <v>521</v>
       </c>
-      <c r="AN65" t="s" s="2">
+      <c r="AO65" t="s" s="2">
         <v>522</v>
       </c>
-      <c r="AO65" t="s" s="2">
+      <c r="AP65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AQ65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AR65" t="s" s="2">
         <v>523</v>
-      </c>
-      <c r="AP65" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AQ65" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AR65" t="s" s="2">
-        <v>524</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="B66" t="s" s="2">
         <v>528</v>
-      </c>
-      <c r="B66" t="s" s="2">
-        <v>529</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10296,13 +10293,13 @@
         <v>83</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="L66" t="s" s="2">
+      <c r="M66" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -10353,31 +10350,31 @@
         <v>83</v>
       </c>
       <c r="AF66" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN66" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="AG66" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH66" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AI66" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ66" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AK66" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL66" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM66" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AN66" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>83</v>
@@ -10394,14 +10391,14 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="B67" t="s" s="2">
         <v>530</v>
-      </c>
-      <c r="B67" t="s" s="2">
-        <v>531</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
@@ -10423,13 +10420,13 @@
         <v>141</v>
       </c>
       <c r="L67" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="M67" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="M67" t="s" s="2">
-        <v>250</v>
-      </c>
       <c r="N67" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -10470,7 +10467,7 @@
         <v>144</v>
       </c>
       <c r="AC67" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AD67" t="s" s="2">
         <v>83</v>
@@ -10479,7 +10476,7 @@
         <v>145</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>84</v>
@@ -10503,7 +10500,7 @@
         <v>83</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>83</v>
@@ -10520,10 +10517,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="B68" t="s" s="2">
         <v>532</v>
-      </c>
-      <c r="B68" t="s" s="2">
-        <v>533</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10546,16 +10543,16 @@
         <v>97</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L68" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="M68" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="M68" t="s" s="2">
+      <c r="N68" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -10605,16 +10602,16 @@
         <v>83</v>
       </c>
       <c r="AF68" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AI68" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="AG68" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH68" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AI68" t="s" s="2">
-        <v>258</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>108</v>
@@ -10646,10 +10643,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="B69" t="s" s="2">
         <v>534</v>
-      </c>
-      <c r="B69" t="s" s="2">
-        <v>535</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10675,13 +10672,13 @@
         <v>110</v>
       </c>
       <c r="L69" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="M69" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="M69" t="s" s="2">
+      <c r="N69" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -10707,31 +10704,31 @@
         <v>83</v>
       </c>
       <c r="X69" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="Y69" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="Y69" t="s" s="2">
+      <c r="Z69" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="Z69" t="s" s="2">
+      <c r="AA69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF69" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="AA69" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD69" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE69" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF69" t="s" s="2">
-        <v>266</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>84</v>
@@ -10770,12 +10767,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="70" hidden="true">
+    <row r="70">
       <c r="A70" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="B70" t="s" s="2">
         <v>536</v>
-      </c>
-      <c r="B70" t="s" s="2">
-        <v>537</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10798,16 +10795,16 @@
         <v>97</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="L70" t="s" s="2">
         <v>538</v>
       </c>
-      <c r="L70" t="s" s="2">
-        <v>539</v>
-      </c>
       <c r="M70" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="N70" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -10857,7 +10854,7 @@
         <v>83</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>84</v>
@@ -10881,7 +10878,7 @@
         <v>83</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>83</v>
@@ -10898,10 +10895,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="B71" t="s" s="2">
         <v>540</v>
-      </c>
-      <c r="B71" t="s" s="2">
-        <v>541</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10924,16 +10921,16 @@
         <v>97</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L71" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="M71" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="M71" t="s" s="2">
+      <c r="N71" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -10983,7 +10980,7 @@
         <v>83</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>84</v>
@@ -11024,12 +11021,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AR71">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
